--- a/population_genetics.xlsx
+++ b/population_genetics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="56">
   <si>
     <t>continent</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>subregion</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
   <si>
     <t>g_freq</t>
@@ -471,468 +477,626 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
+        <v>13.1939</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-59.5432</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.979</v>
       </c>
-      <c r="E2" s="1">
-        <f t="shared" ref="E2:E27" si="1">1-D2</f>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G27" si="1">1-F2</f>
         <v>0.021</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
+        <v>33.4484</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-112.074</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.975</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <f t="shared" si="1"/>
         <v>0.025</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
+        <v>9.082</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.6753</v>
+      </c>
+      <c r="F4" s="1">
         <v>1.0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
+        <v>13.4432</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-15.3101</v>
+      </c>
+      <c r="F5" s="1">
         <v>1.0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
+        <v>-1.2921</v>
+      </c>
+      <c r="E6" s="1">
+        <v>36.8219</v>
+      </c>
+      <c r="F6" s="1">
         <v>1.0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
+        <v>8.4606</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-11.7799</v>
+      </c>
+      <c r="F7" s="1">
         <v>1.0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
+        <v>7.3775</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.947</v>
+      </c>
+      <c r="F8" s="1">
         <v>1.0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
+        <v>4.5709</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-74.2973</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.878</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
         <v>0.122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
+        <v>34.0522</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-118.2437</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.914</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
         <v>0.086</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
+        <v>-9.19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-75.0152</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.971</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>0.029</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
+        <v>18.2208</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-66.5901</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.923</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
         <v>0.077</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
+        <v>21.9287</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100.2364</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.978</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
         <v>0.022</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
+        <v>39.9042</v>
+      </c>
+      <c r="E14" s="1">
+        <v>116.4074</v>
+      </c>
+      <c r="F14" s="1">
         <v>1.0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
+        <v>23.3417</v>
+      </c>
+      <c r="E15" s="1">
+        <v>113.226</v>
+      </c>
+      <c r="F15" s="1">
         <v>1.0</v>
       </c>
-      <c r="E15" s="1">
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1">
+        <v>35.6895</v>
+      </c>
+      <c r="E16" s="1">
+        <v>139.6917</v>
+      </c>
+      <c r="F16" s="1">
         <v>1.0</v>
       </c>
-      <c r="E16" s="1">
+      <c r="G16" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1">
+        <v>10.7769</v>
+      </c>
+      <c r="E17" s="1">
+        <v>106.7009</v>
+      </c>
+      <c r="F17" s="1">
         <v>0.99</v>
       </c>
-      <c r="E17" s="1">
+      <c r="G17" s="1">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
         <v>0.793</v>
       </c>
-      <c r="E18" s="1">
+      <c r="G18" s="1">
         <f t="shared" si="1"/>
         <v>0.207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1">
+        <v>61.9241</v>
+      </c>
+      <c r="E19" s="1">
+        <v>25.7482</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.808</v>
       </c>
-      <c r="E19" s="1">
+      <c r="G19" s="1">
         <f t="shared" si="1"/>
         <v>0.192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1">
+        <v>56.4907</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-4.2026</v>
+      </c>
+      <c r="F20" s="1">
         <v>0.786</v>
       </c>
-      <c r="E20" s="1">
+      <c r="G20" s="1">
         <f t="shared" si="1"/>
         <v>0.214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1">
+        <v>40.4637</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-3.7492</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.79</v>
       </c>
-      <c r="E21" s="1">
+      <c r="G21" s="1">
         <f t="shared" si="1"/>
         <v>0.21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1">
+        <v>41.8719</v>
+      </c>
+      <c r="E22" s="1">
+        <v>12.5674</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.808</v>
       </c>
-      <c r="E22" s="1">
+      <c r="G22" s="1">
         <f t="shared" si="1"/>
         <v>0.192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1">
+        <v>23.685</v>
+      </c>
+      <c r="E23" s="1">
+        <v>90.3563</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.901</v>
       </c>
-      <c r="E23" s="1">
+      <c r="G23" s="1">
         <f t="shared" si="1"/>
         <v>0.099</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1">
+        <v>29.7604</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-95.3698</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.898</v>
       </c>
-      <c r="E24" s="1">
+      <c r="G24" s="1">
         <f t="shared" si="1"/>
         <v>0.102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1">
+        <v>51.5099</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-0.118</v>
+      </c>
+      <c r="F25" s="1">
         <v>0.887</v>
       </c>
-      <c r="E25" s="1">
+      <c r="G25" s="1">
         <f t="shared" si="1"/>
         <v>0.113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1">
+        <v>30.3753</v>
+      </c>
+      <c r="E26" s="1">
+        <v>69.3451</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.901</v>
       </c>
-      <c r="E26" s="1">
+      <c r="G26" s="1">
         <f t="shared" si="1"/>
         <v>0.099</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1">
+        <v>54.9783</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1.6174</v>
+      </c>
+      <c r="F27" s="1">
         <v>0.917</v>
       </c>
-      <c r="E27" s="1">
+      <c r="G27" s="1">
         <f t="shared" si="1"/>
         <v>0.083</v>
       </c>
@@ -963,474 +1127,632 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
+        <v>13.1939</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-59.5432</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.516</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E27" si="1">(1-D2)</f>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G27" si="1">(1-F2)</f>
         <v>0.484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
+        <v>33.4484</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-112.074</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.574</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <f t="shared" si="1"/>
         <v>0.426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
+        <v>9.082</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.6753</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.601</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>0.399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
+        <v>13.4432</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-15.3101</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.566</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>0.434</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
+        <v>-1.2921</v>
+      </c>
+      <c r="E6" s="1">
+        <v>36.8219</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.535</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>0.465</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
+        <v>8.4606</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-11.7799</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.559</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>0.441</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
+        <v>7.3775</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.947</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.583</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>0.417</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
+        <v>4.5709</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-74.2973</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.484</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>0.516</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
+        <v>34.0522</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-118.2437</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.383</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>0.617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
+        <v>-9.19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-75.0152</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.347</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>0.653</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
+        <v>18.2208</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-66.5901</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.543</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>0.457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
+        <v>21.9287</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100.2364</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.398</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>0.602</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
+        <v>39.9042</v>
+      </c>
+      <c r="E14" s="1">
+        <v>116.4074</v>
+      </c>
+      <c r="F14" s="1">
         <v>0.291</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>0.709</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
+        <v>23.3417</v>
+      </c>
+      <c r="E15" s="1">
+        <v>113.226</v>
+      </c>
+      <c r="F15" s="1">
         <v>0.338</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
         <v>0.662</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1">
+        <v>35.6895</v>
+      </c>
+      <c r="E16" s="1">
+        <v>139.6917</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.394</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>0.606</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1">
+        <v>10.7769</v>
+      </c>
+      <c r="E17" s="1">
+        <v>106.7009</v>
+      </c>
+      <c r="F17" s="1">
         <v>0.384</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>0.616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
         <v>0.465</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>0.535</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1">
+        <v>61.9241</v>
+      </c>
+      <c r="E19" s="1">
+        <v>25.7482</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.434</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>0.566</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1">
+        <v>56.4907</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-4.2026</v>
+      </c>
+      <c r="F20" s="1">
         <v>0.522</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>0.478</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1">
+        <v>40.4637</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-3.7492</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.612</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>0.388</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1">
+        <v>41.8719</v>
+      </c>
+      <c r="E22" s="1">
+        <v>12.5674</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.509</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <f t="shared" si="1"/>
         <v>0.491</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1">
+        <v>23.685</v>
+      </c>
+      <c r="E23" s="1">
+        <v>90.3563</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.552</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>0.448</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1">
+        <v>29.7604</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-95.3698</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.612</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>0.388</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1">
+        <v>51.5099</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-0.118</v>
+      </c>
+      <c r="F25" s="1">
         <v>0.667</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>0.333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1">
+        <v>30.3753</v>
+      </c>
+      <c r="E26" s="1">
+        <v>69.3451</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.589</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>0.411</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1">
+        <v>54.9783</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1.6174</v>
+      </c>
+      <c r="F27" s="1">
         <v>0.632</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>0.368</v>
       </c>
@@ -1461,473 +1783,631 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
+        <v>13.1939</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-59.5432</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.927</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E27" si="1">1-D2</f>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G27" si="1">1-F2</f>
         <v>0.073</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
+        <v>33.4484</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-112.074</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.828</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <f t="shared" si="1"/>
         <v>0.172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
+        <v>9.082</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.6753</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.97</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
+        <v>13.4432</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-15.3101</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.947</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>0.053</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
+        <v>-1.2921</v>
+      </c>
+      <c r="E6" s="1">
+        <v>36.8219</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.965</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>0.035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
+        <v>8.4606</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-11.7799</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.971</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>0.029</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
+        <v>7.3775</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.947</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.991</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>0.009</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
+        <v>4.5709</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-74.2973</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.601</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>0.399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
+        <v>34.0522</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-118.2437</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.602</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>0.398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
+        <v>-9.19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-75.0152</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.753</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>0.247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
+        <v>18.2208</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-66.5901</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.596</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>0.404</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
+        <v>21.9287</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100.2364</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.957</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>0.043</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
+        <v>39.9042</v>
+      </c>
+      <c r="E14" s="1">
+        <v>116.4074</v>
+      </c>
+      <c r="F14" s="1">
         <v>0.981</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>0.019</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
+        <v>23.3417</v>
+      </c>
+      <c r="E15" s="1">
+        <v>113.226</v>
+      </c>
+      <c r="F15" s="1">
         <v>0.986</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
         <v>0.014</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1">
+        <v>35.6895</v>
+      </c>
+      <c r="E16" s="1">
+        <v>139.6917</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.913</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>0.087</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1">
+        <v>10.7769</v>
+      </c>
+      <c r="E17" s="1">
+        <v>106.7009</v>
+      </c>
+      <c r="F17" s="1">
         <v>0.96</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
         <v>0.439</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>0.561</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1">
+        <v>61.9241</v>
+      </c>
+      <c r="E19" s="1">
+        <v>25.7482</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.606</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>0.394</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1">
+        <v>56.4907</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-4.2026</v>
+      </c>
+      <c r="F20" s="1">
         <v>0.473</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>0.527</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1">
+        <v>40.4637</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-3.7492</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.463</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>0.537</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1">
+        <v>41.8719</v>
+      </c>
+      <c r="E22" s="1">
+        <v>12.5674</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.444</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <f t="shared" si="1"/>
         <v>0.556</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1">
+        <v>23.685</v>
+      </c>
+      <c r="E23" s="1">
+        <v>90.3563</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.663</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>0.337</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1">
+        <v>29.7604</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-95.3698</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.578</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>0.422</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1">
+        <v>51.5099</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-0.118</v>
+      </c>
+      <c r="F25" s="1">
         <v>0.578</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>0.422</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1">
+        <v>30.3753</v>
+      </c>
+      <c r="E26" s="1">
+        <v>69.3451</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.589</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>0.411</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1">
+        <v>54.9783</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1.6174</v>
+      </c>
+      <c r="F27" s="1">
         <v>0.525</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>0.475</v>
       </c>
@@ -1958,473 +2438,631 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
+        <v>13.1939</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-59.5432</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.891</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E27" si="1">1-D2</f>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G27" si="1">1-F2</f>
         <v>0.109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
+        <v>33.4484</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-112.074</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.861</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <f t="shared" si="1"/>
         <v>0.139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
+        <v>9.082</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.6753</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.859</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>0.141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
+        <v>13.4432</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-15.3101</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.814</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>0.186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
+        <v>-1.2921</v>
+      </c>
+      <c r="E6" s="1">
+        <v>36.8219</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.874</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>0.126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
+        <v>8.4606</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-11.7799</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.841</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>0.159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
+        <v>7.3775</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.947</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.833</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>0.167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
+        <v>4.5709</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-74.2973</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.883</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>0.117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
+        <v>34.0522</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-118.2437</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.945</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>0.055</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
+        <v>-9.19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-75.0152</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.976</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>0.024</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
+        <v>18.2208</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-66.5901</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.87</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>0.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
+        <v>21.9287</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100.2364</v>
+      </c>
+      <c r="F13" s="1">
         <v>1.0</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
+        <v>39.9042</v>
+      </c>
+      <c r="E14" s="1">
+        <v>116.4074</v>
+      </c>
+      <c r="F14" s="1">
         <v>1.0</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
+        <v>23.3417</v>
+      </c>
+      <c r="E15" s="1">
+        <v>113.226</v>
+      </c>
+      <c r="F15" s="1">
         <v>1.0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1">
+        <v>35.6895</v>
+      </c>
+      <c r="E16" s="1">
+        <v>139.6917</v>
+      </c>
+      <c r="F16" s="1">
         <v>1.0</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1">
+        <v>10.7769</v>
+      </c>
+      <c r="E17" s="1">
+        <v>106.7009</v>
+      </c>
+      <c r="F17" s="1">
         <v>1.0</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
         <v>0.833</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>0.167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1">
+        <v>61.9241</v>
+      </c>
+      <c r="E19" s="1">
+        <v>25.7482</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.803</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>0.197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1">
+        <v>56.4907</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-4.2026</v>
+      </c>
+      <c r="F20" s="1">
         <v>0.819</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>0.181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1">
+        <v>40.4637</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-3.7492</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.832</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>0.168</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1">
+        <v>41.8719</v>
+      </c>
+      <c r="E22" s="1">
+        <v>12.5674</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.836</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <f t="shared" si="1"/>
         <v>0.164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1">
+        <v>23.685</v>
+      </c>
+      <c r="E23" s="1">
+        <v>90.3563</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.89</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1">
+        <v>29.7604</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-95.3698</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.85</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1">
+        <v>51.5099</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-0.118</v>
+      </c>
+      <c r="F25" s="1">
         <v>0.848</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>0.152</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1">
+        <v>30.3753</v>
+      </c>
+      <c r="E26" s="1">
+        <v>69.3451</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.792</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>0.208</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1">
+        <v>54.9783</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1.6174</v>
+      </c>
+      <c r="F27" s="1">
         <v>0.877</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>0.123</v>
       </c>
@@ -2455,473 +3093,631 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
+        <v>13.1939</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-59.5432</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.911</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E27" si="1">1-D2</f>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G27" si="1">1-F2</f>
         <v>0.089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
+        <v>33.4484</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-112.074</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.844</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <f t="shared" si="1"/>
         <v>0.156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
+        <v>9.082</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.6753</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.96</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
+        <v>13.4432</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-15.3101</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.991</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>0.009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
+        <v>-1.2921</v>
+      </c>
+      <c r="E6" s="1">
+        <v>36.8219</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.914</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>0.086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
+        <v>8.4606</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-11.7799</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.959</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>0.041</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
+        <v>7.3775</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.947</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.963</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>0.037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
+        <v>4.5709</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-74.2973</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
+        <v>34.0522</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-118.2437</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.547</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>0.453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
+        <v>-9.19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-75.0152</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.706</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>0.294</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
+        <v>18.2208</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-66.5901</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.654</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>0.346</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
+        <v>21.9287</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100.2364</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.806</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>0.194</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
+        <v>39.9042</v>
+      </c>
+      <c r="E14" s="1">
+        <v>116.4074</v>
+      </c>
+      <c r="F14" s="1">
         <v>0.888</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>0.112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
+        <v>23.3417</v>
+      </c>
+      <c r="E15" s="1">
+        <v>113.226</v>
+      </c>
+      <c r="F15" s="1">
         <v>0.9</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1">
+        <v>35.6895</v>
+      </c>
+      <c r="E16" s="1">
+        <v>139.6917</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.827</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>0.173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1">
+        <v>10.7769</v>
+      </c>
+      <c r="E17" s="1">
+        <v>106.7009</v>
+      </c>
+      <c r="F17" s="1">
         <v>0.869</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>0.131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
         <v>0.455</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>0.545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1">
+        <v>61.9241</v>
+      </c>
+      <c r="E19" s="1">
+        <v>25.7482</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.621</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>0.379</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1">
+        <v>56.4907</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-4.2026</v>
+      </c>
+      <c r="F20" s="1">
         <v>0.566</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>0.434</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1">
+        <v>40.4637</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-3.7492</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.439</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>0.561</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1">
+        <v>41.8719</v>
+      </c>
+      <c r="E22" s="1">
+        <v>12.5674</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.495</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <f t="shared" si="1"/>
         <v>0.505</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1">
+        <v>23.685</v>
+      </c>
+      <c r="E23" s="1">
+        <v>90.3563</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.552</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>0.448</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1">
+        <v>29.7604</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-95.3698</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.529</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>0.471</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1">
+        <v>51.5099</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-0.118</v>
+      </c>
+      <c r="F25" s="1">
         <v>0.559</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>0.441</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1">
+        <v>30.3753</v>
+      </c>
+      <c r="E26" s="1">
+        <v>69.3451</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.536</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>0.464</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1">
+        <v>54.9783</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1.6174</v>
+      </c>
+      <c r="F27" s="1">
         <v>0.652</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>0.348</v>
       </c>
@@ -2955,470 +3751,628 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
+        <v>13.1939</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-59.5432</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.75</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E27" si="1">(1-D2)</f>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G27" si="1">(1-F2)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
+        <v>33.4484</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-112.074</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.656</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <f t="shared" si="1"/>
         <v>0.344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
+        <v>9.082</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.6753</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.747</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>0.253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
+        <v>13.4432</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-15.3101</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.708</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>0.292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
+        <v>-1.2921</v>
+      </c>
+      <c r="E6" s="1">
+        <v>36.8219</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.672</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>0.328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
+        <v>8.4606</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-11.7799</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.635</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>0.365</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
+        <v>7.3775</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.947</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.75</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
+        <v>4.5709</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-74.2973</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.495</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>0.505</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
+        <v>34.0522</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-118.2437</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.438</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>0.562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
+        <v>-9.19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-75.0152</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.329</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>0.671</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
+        <v>18.2208</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-66.5901</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.49</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>0.51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
+        <v>21.9287</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100.2364</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.769</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>0.231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
+        <v>39.9042</v>
+      </c>
+      <c r="E14" s="1">
+        <v>116.4074</v>
+      </c>
+      <c r="F14" s="1">
         <v>0.748</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>0.252</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
+        <v>23.3417</v>
+      </c>
+      <c r="E15" s="1">
+        <v>113.226</v>
+      </c>
+      <c r="F15" s="1">
         <v>0.757</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
         <v>0.243</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1">
+        <v>35.6895</v>
+      </c>
+      <c r="E16" s="1">
+        <v>139.6917</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.625</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1">
+        <v>10.7769</v>
+      </c>
+      <c r="E17" s="1">
+        <v>106.7009</v>
+      </c>
+      <c r="F17" s="1">
         <v>0.692</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>0.308</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
         <v>0.439</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>0.561</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1">
+        <v>61.9241</v>
+      </c>
+      <c r="E19" s="1">
+        <v>25.7482</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.338</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>0.662</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1">
+        <v>56.4907</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-4.2026</v>
+      </c>
+      <c r="F20" s="1">
         <v>0.44</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>0.56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1">
+        <v>40.4637</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-3.7492</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.491</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>0.509</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1">
+        <v>41.8719</v>
+      </c>
+      <c r="E22" s="1">
+        <v>12.5674</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.486</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <f t="shared" si="1"/>
         <v>0.514</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1">
+        <v>23.685</v>
+      </c>
+      <c r="E23" s="1">
+        <v>90.3563</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.669</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>0.331</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1">
+        <v>29.7604</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-95.3698</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.728</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>0.272</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1">
+        <v>51.5099</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-0.118</v>
+      </c>
+      <c r="F25" s="1">
         <v>0.745</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>0.255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1">
+        <v>30.3753</v>
+      </c>
+      <c r="E26" s="1">
+        <v>69.3451</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.693</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>0.307</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1">
+        <v>54.9783</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1.6174</v>
+      </c>
+      <c r="F27" s="1">
         <v>0.608</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>0.392</v>
       </c>
